--- a/PhoenixCI/Excel_Template/40022.xlsx
+++ b/PhoenixCI/Excel_Template/40022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Bdc\結算部\風管組\個人資料區\CL.郭劻祥\1.測試\107年測試\107.1盤後子系統樣板升級\Excel_Template\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\source\repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60810F-CB5B-4A6D-9FB9-88F6918F81FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="921"/>
+    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Span參數日狀況表" sheetId="34" r:id="rId1"/>
@@ -29,12 +30,19 @@
     <definedName name="XX_TEJ6" localSheetId="0">#REF!</definedName>
     <definedName name="XX_TEJ6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -65,69 +73,6 @@
         <charset val="136"/>
       </rPr>
       <t>一、</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -250,12 +195,565 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
+      <t>變動幅度未達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，跨商品價差折抵率維持現行收取標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行跨商品價差折抵率</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日計算跨商品價差折抵率</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日計算跨商品價差折抵率－現行跨商品價差折抵率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) ÷ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行跨商品價差折抵率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>經　辦：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">______________          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>覆核：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">______________             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>經理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>______________</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二、</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>契約價值耗用比率</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨商品價差折抵率</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>三、</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日波動度偵測全距變動幅度：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日波動度偵測全距變動幅度</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作業事項</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日計算波動度偵測全距－現行波動度偵測全距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) ÷ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行波動度偵測全距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日波動度偵測全距</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    A</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行波動度偵測全距</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      B</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                   C=(A-B)/B</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，波動度偵測全距維持現行收取標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RHO/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RTO   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">TGO  </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期：2014年11月24日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
       <t>變動幅度已達</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">10% </t>
@@ -284,7 +782,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>參數調整審核會議記錄」</t>
+      <t>參數調整審核會議紀錄」</t>
     </r>
     <r>
       <rPr>
@@ -310,9 +808,17 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10% </t>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10% </t>
     </r>
     <r>
       <rPr>
@@ -330,601 +836,6 @@
         <family val="1"/>
       </rPr>
       <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>現行跨商品價差折抵率</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日計算跨商品價差折抵率</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日計算跨商品價差折抵率－現行跨商品價差折抵率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) ÷ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>現行跨商品價差折抵率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度未達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，跨商品價差折抵率維持現行收取標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>經　辦：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">______________          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>覆核：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">______________             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>經理：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>______________</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>二、</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>契約價值耗用比率</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跨商品價差折抵率</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>三、</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日波動度偵測全距變動幅度：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日波動度偵測全距變動幅度</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>作業事項</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日計算波動度偵測全距－現行波動度偵測全距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) ÷ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>現行波動度偵測全距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日波動度偵測全距</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    A</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>現行波動度偵測全距</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      B</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                   C=(A-B)/B</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，波動度偵測全距維持現行收取標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，建議事項如「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SPAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數調整審核會議記錄」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RHO/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">RTO   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">TGO  </t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -932,14 +843,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
-    <numFmt numFmtId="187" formatCode="0.00_ "/>
-    <numFmt numFmtId="188" formatCode="0.0%"/>
-    <numFmt numFmtId="191" formatCode="0.0%_);\(0.0%\);*-"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%_);\(0.0%\);*-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1069,6 +980,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1132,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,17 +1073,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1171,7 +1093,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1195,10 +1117,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1216,19 +1138,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1241,7 +1163,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,38 +1184,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
-    <cellStyle name="百分比 2" xfId="3"/>
-    <cellStyle name="百分比 3" xfId="4"/>
-    <cellStyle name="百分比 4" xfId="5"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="百分比 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="百分比 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1397,6 +1322,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1432,6 +1374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1607,17 +1566,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -1628,33 +1587,33 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="21"/>
-      <c r="G1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1668,7 +1627,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -1680,7 +1639,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="18"/>
       <c r="C6" s="9"/>
@@ -1690,10 +1649,10 @@
       <c r="G6" s="9"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1702,7 +1661,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -1716,7 +1675,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>1</v>
@@ -1731,7 +1690,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="18"/>
       <c r="C10" s="9"/>
@@ -1741,10 +1700,10 @@
       <c r="G10" s="9"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1753,7 +1712,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>0</v>
@@ -1767,7 +1726,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -1782,7 +1741,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="18"/>
       <c r="C14" s="23"/>
@@ -1792,39 +1751,39 @@
       <c r="G14" s="9"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
+      <c r="B16" s="53" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -1832,22 +1791,22 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1857,12 +1816,12 @@
       <c r="H20" s="20"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
         <v>0</v>
@@ -1876,7 +1835,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
         <v>2</v>
@@ -1888,7 +1847,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="18"/>
       <c r="C24" s="9"/>
@@ -1898,10 +1857,10 @@
       <c r="G24" s="9"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1910,7 +1869,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
         <v>0</v>
@@ -1924,7 +1883,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="5" t="s">
         <v>2</v>
@@ -1939,7 +1898,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="18"/>
       <c r="C28" s="9"/>
@@ -1949,10 +1908,10 @@
       <c r="G28" s="9"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1961,7 +1920,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>0</v>
@@ -1975,7 +1934,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
         <v>2</v>
@@ -1990,7 +1949,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -2000,39 +1959,39 @@
       <c r="G32" s="9"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="B33" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
+      <c r="B34" s="53" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="12" t="s">
-        <v>14</v>
+      <c r="B35" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
@@ -2040,45 +1999,45 @@
       <c r="E36" s="13"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5">
-      <c r="B38" s="3" t="s">
+      <c r="C41" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5">
-      <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="48.75">
-      <c r="B41" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42" s="47" t="e">
         <f>#REF!</f>
@@ -2090,9 +2049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" s="47" t="e">
         <f>#REF!</f>
@@ -2104,9 +2063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5">
+    <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C44" s="45" t="e">
         <f>#REF!</f>
@@ -2118,16 +2077,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="C45" s="32"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -2135,10 +2094,10 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="1:9" s="39" customFormat="1" ht="16.5">
+    <row r="47" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
@@ -2146,10 +2105,10 @@
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2157,25 +2116,25 @@
       <c r="F48" s="12"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" s="41" customFormat="1">
+    <row r="49" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="42" customFormat="1" ht="16.5">
+    <row r="50" spans="1:7" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="7"/>
@@ -2184,7 +2143,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
@@ -2193,9 +2152,9 @@
       <c r="F52" s="12"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PhoenixCI/Excel_Template/40022.xlsx
+++ b/PhoenixCI/Excel_Template/40022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\source\repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60810F-CB5B-4A6D-9FB9-88F6918F81FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="921"/>
   </bookViews>
   <sheets>
     <sheet name="Span參數日狀況表" sheetId="34" r:id="rId1"/>
@@ -30,19 +29,12 @@
     <definedName name="XX_TEJ6" localSheetId="0">#REF!</definedName>
     <definedName name="XX_TEJ6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -73,6 +65,69 @@
         <charset val="136"/>
       </rPr>
       <t>一、</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -327,6 +382,43 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
+      <t>變動幅度未達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，跨商品價差折抵率維持現行收取標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
       <t>經　辦：</t>
     </r>
     <r>
@@ -729,10 +821,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>資料日期：2014年11月24日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -746,14 +834,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">10% </t>
@@ -765,24 +845,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>之得調整標準，建議事項如「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SPAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數調整審核會議紀錄」</t>
+      <t>之得調整標準，建議事項如「保證金調整審核會議紀錄」</t>
     </r>
     <r>
       <rPr>
@@ -802,32 +865,24 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>變動幅度未達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，跨商品價差折抵率維持現行收取標準</t>
+      <t>變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，建議事項如「保證金調整審核會議紀錄」</t>
     </r>
     <r>
       <rPr>
@@ -837,20 +892,20 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="0.0%_);\(0.0%\);*-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,17 +1035,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="4"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1054,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,26 +1243,23 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="百分比 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="百分比 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="百分比 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="百分比 2" xfId="3"/>
+    <cellStyle name="百分比 3" xfId="4"/>
+    <cellStyle name="百分比 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,23 +1363,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1374,23 +1398,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1566,14 +1573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1592,14 +1599,14 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="21"/>
-      <c r="G1" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="G1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -1610,7 +1617,7 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1652,7 +1659,7 @@
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1703,7 +1710,7 @@
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1753,21 +1760,21 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="53" t="s">
-        <v>31</v>
+      <c r="B16" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="15"/>
@@ -1776,7 +1783,7 @@
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1793,17 +1800,17 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1818,7 +1825,7 @@
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1860,7 +1867,7 @@
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1911,7 +1918,7 @@
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1961,21 +1968,21 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
+      <c r="B33" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="53" t="s">
-        <v>31</v>
+      <c r="B34" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="15"/>
@@ -1983,8 +1990,8 @@
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="53" t="s">
-        <v>32</v>
+      <c r="B35" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2001,16 +2008,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,26 +2025,26 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B41" s="27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" s="47" t="e">
         <f>#REF!</f>
@@ -2051,7 +2058,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C43" s="47" t="e">
         <f>#REF!</f>
@@ -2065,7 +2072,7 @@
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C44" s="45" t="e">
         <f>#REF!</f>
@@ -2086,7 +2093,7 @@
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -2097,7 +2104,7 @@
     <row r="47" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
@@ -2108,7 +2115,7 @@
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2126,7 +2133,7 @@
     <row r="50" spans="1:7" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
@@ -2134,8 +2141,8 @@
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="53" t="s">
-        <v>31</v>
+      <c r="B51" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="15"/>
@@ -2154,7 +2161,7 @@
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
